--- a/ProjectDocs/WBS-Compucom Tracker.xlsx
+++ b/ProjectDocs/WBS-Compucom Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="7215"/>
+    <workbookView windowWidth="15990" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>WBS  Compucom Tracker Portal</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Tracker Registration Module</t>
   </si>
   <si>
-    <t>Review</t>
-  </si>
-  <si>
     <t>Amit S</t>
   </si>
   <si>
@@ -154,13 +151,22 @@
     <t>Android App (Basic) Module</t>
   </si>
   <si>
+    <t xml:space="preserve">Web Service Development </t>
+  </si>
+  <si>
     <t>Notification Display Module</t>
   </si>
   <si>
     <t xml:space="preserve">Testing </t>
   </si>
   <si>
+    <t>Manoj A, Alok K</t>
+  </si>
+  <si>
     <t>Bug Fixing</t>
+  </si>
+  <si>
+    <t>Rajesh A, Amit S</t>
   </si>
   <si>
     <t>Testing &amp; Deployment</t>
@@ -174,11 +180,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -564,7 +570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -710,19 +716,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -833,12 +826,12 @@
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,13 +841,13 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,16 +874,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -899,19 +892,19 @@
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -975,7 +968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1031,7 +1024,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1051,22 +1044,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1384,12 +1369,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1536,6 +1521,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="28" t="s">
         <v>14</v>
       </c>
@@ -1614,16 +1600,18 @@
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30">
+      <c r="A18" s="24">
+        <v>2</v>
+      </c>
+      <c r="B18" s="24">
         <v>2.1</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="27"/>
@@ -1660,7 +1648,7 @@
     <row r="21" ht="18.75" customHeight="1" spans="1:6">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="30" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="28" t="s">
@@ -1676,7 +1664,7 @@
     <row r="22" ht="18.75" customHeight="1" spans="1:6">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="30" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="28"/>
@@ -1688,16 +1676,18 @@
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1" spans="1:6">
-      <c r="A23" s="33"/>
-      <c r="B23" s="30">
+      <c r="A23" s="23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="24">
         <v>3.1</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="27"/>
@@ -1805,10 +1795,10 @@
         <v>15</v>
       </c>
       <c r="E30" s="29">
-        <v>42799</v>
+        <v>42800</v>
       </c>
       <c r="F30" s="29">
-        <v>42799</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1820,16 +1810,18 @@
       <c r="F31" s="28"/>
     </row>
     <row r="32" ht="12" customHeight="1" spans="1:6">
-      <c r="A32" s="33"/>
-      <c r="B32" s="30">
+      <c r="A32" s="23">
+        <v>4</v>
+      </c>
+      <c r="B32" s="24">
         <v>4.1</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="27"/>
@@ -1841,9 +1833,11 @@
         <v>29</v>
       </c>
       <c r="E33" s="29">
-        <v>42800</v>
-      </c>
-      <c r="F33" s="28"/>
+        <v>42801</v>
+      </c>
+      <c r="F33" s="29">
+        <v>42804</v>
+      </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="27"/>
@@ -1854,20 +1848,28 @@
       <c r="D34" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="E34" s="29">
+        <v>42808</v>
+      </c>
+      <c r="F34" s="29">
+        <v>42811</v>
+      </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="27"/>
       <c r="B35" s="27"/>
       <c r="C35" s="28" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
+      <c r="E35" s="29">
+        <v>42814</v>
+      </c>
+      <c r="F35" s="29">
+        <v>42815</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="27"/>
@@ -1878,706 +1880,1282 @@
       <c r="D36" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="E36" s="29">
+        <v>42816</v>
+      </c>
+      <c r="F36" s="29">
+        <v>42828</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="27"/>
       <c r="B37" s="27"/>
       <c r="C37" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
+        <v>15</v>
+      </c>
+      <c r="E37" s="29">
+        <v>42830</v>
+      </c>
+      <c r="F37" s="29">
+        <v>42832</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="27"/>
       <c r="B38" s="27"/>
       <c r="C38" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="29">
+        <v>42835</v>
+      </c>
+      <c r="F38" s="29">
+        <v>42838</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D39" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="29">
+        <v>42842</v>
+      </c>
+      <c r="F39" s="29">
+        <v>42843</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="23">
+        <v>5</v>
+      </c>
+      <c r="B41" s="24">
+        <v>5.1</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29">
-        <v>42840</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="33"/>
-      <c r="B40" s="30">
-        <v>5.1</v>
-      </c>
-      <c r="C40" s="31" t="s">
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="29">
+        <v>42844</v>
+      </c>
+      <c r="F42" s="29">
+        <v>42851</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="29">
+        <v>42852</v>
+      </c>
+      <c r="F43" s="29">
+        <v>42857</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="29">
+        <v>42858</v>
+      </c>
+      <c r="F44" s="29">
+        <v>42860</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="29">
+        <v>42863</v>
+      </c>
+      <c r="F45" s="29">
+        <v>42877</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="29">
+        <v>42878</v>
+      </c>
+      <c r="F46" s="29">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="29">
+        <v>42884</v>
+      </c>
+      <c r="F47" s="29">
+        <v>42886</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="29">
+        <v>42887</v>
+      </c>
+      <c r="F48" s="29">
+        <v>42888</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="23">
+        <v>6</v>
+      </c>
+      <c r="B50" s="24">
+        <v>6.1</v>
+      </c>
+      <c r="C50" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-    </row>
-    <row r="41" spans="3:6">
-      <c r="C41" s="28" t="s">
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D51" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="29">
-        <v>42842</v>
-      </c>
-      <c r="F41" s="28"/>
-    </row>
-    <row r="42" spans="3:6">
-      <c r="C42" s="28" t="s">
+      <c r="E51" s="29">
+        <v>42891</v>
+      </c>
+      <c r="F51" s="29">
+        <v>42895</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-    </row>
-    <row r="43" spans="3:6">
-      <c r="C43" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-    </row>
-    <row r="44" spans="3:6">
-      <c r="C44" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-    </row>
-    <row r="45" spans="3:6">
-      <c r="C45" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-    </row>
-    <row r="46" spans="3:6">
-      <c r="C46" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29">
-        <v>42889</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6">
-      <c r="C48" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" s="29">
-        <v>42891</v>
-      </c>
-      <c r="F49" s="28"/>
-    </row>
-    <row r="50" spans="3:6">
-      <c r="C50" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-    </row>
-    <row r="51" spans="3:6">
-      <c r="C51" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-    </row>
-    <row r="52" spans="3:6">
-      <c r="C52" s="28" t="s">
-        <v>32</v>
       </c>
       <c r="D52" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-    </row>
-    <row r="53" spans="3:6">
+      <c r="E52" s="29">
+        <v>42898</v>
+      </c>
+      <c r="F52" s="29">
+        <v>42901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" s="29">
+        <v>42902</v>
+      </c>
+      <c r="F53" s="29">
+        <v>42907</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="29">
+        <v>42908</v>
+      </c>
+      <c r="F54" s="29">
+        <v>42921</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="29">
+        <v>42922</v>
+      </c>
+      <c r="F55" s="29">
+        <v>42923</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D56" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="C54" s="28" t="s">
+      <c r="E56" s="29">
+        <v>42926</v>
+      </c>
+      <c r="F56" s="29">
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29">
-        <v>42931</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="C56" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-    </row>
-    <row r="57" spans="3:6">
-      <c r="C57" s="28" t="s">
-        <v>28</v>
-      </c>
       <c r="D57" s="28" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E57" s="29">
-        <v>42933</v>
-      </c>
-      <c r="F57" s="28"/>
-    </row>
-    <row r="58" spans="3:6">
-      <c r="C58" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>24</v>
-      </c>
+        <v>42929</v>
+      </c>
+      <c r="F57" s="29">
+        <v>42930</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
       <c r="E58" s="28"/>
       <c r="F58" s="28"/>
     </row>
-    <row r="59" spans="3:6">
-      <c r="C59" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="28" t="s">
+    <row r="59" spans="1:6">
+      <c r="A59" s="23">
+        <v>7</v>
+      </c>
+      <c r="B59" s="24">
+        <v>7.1</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="29">
+        <v>42933</v>
+      </c>
+      <c r="F60" s="29">
+        <v>42935</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="29">
+        <v>42936</v>
+      </c>
+      <c r="F61" s="29">
+        <v>42940</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-    </row>
-    <row r="60" spans="3:6">
-      <c r="C60" s="28" t="s">
+      <c r="E62" s="29">
+        <v>42941</v>
+      </c>
+      <c r="F62" s="29">
+        <v>42942</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D63" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-    </row>
-    <row r="61" spans="3:6">
-      <c r="C61" s="28" t="s">
+      <c r="E63" s="29">
+        <v>42943</v>
+      </c>
+      <c r="F63" s="29">
+        <v>42947</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="28"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="29">
+        <v>42948</v>
+      </c>
+      <c r="F64" s="29">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="28"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28" t="s">
         <v>34</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-    </row>
-    <row r="62" spans="3:6">
-      <c r="C62" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="28"/>
-      <c r="F62" s="29">
-        <v>42952</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6">
-      <c r="C64" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-    </row>
-    <row r="65" spans="3:6">
-      <c r="C65" s="28" t="s">
-        <v>28</v>
       </c>
       <c r="D65" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E65" s="29">
-        <v>42955</v>
-      </c>
-      <c r="F65" s="28"/>
-    </row>
-    <row r="66" spans="3:6">
+        <v>42949</v>
+      </c>
+      <c r="F65" s="29">
+        <v>42950</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="28"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="28" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-    </row>
-    <row r="67" spans="3:6">
-      <c r="C67" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="E66" s="29">
+        <v>42951</v>
+      </c>
+      <c r="F66" s="29">
+        <v>42951</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
       <c r="E67" s="28"/>
       <c r="F67" s="28"/>
     </row>
-    <row r="68" spans="3:6">
-      <c r="C68" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-    </row>
-    <row r="69" spans="3:6">
+    <row r="68" spans="1:6">
+      <c r="A68" s="23">
+        <v>8</v>
+      </c>
+      <c r="B68" s="24">
+        <v>8.1</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="28"/>
+      <c r="B69" s="28"/>
       <c r="C69" s="28" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D69" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-    </row>
-    <row r="70" spans="3:6">
+      <c r="E69" s="29">
+        <v>42955</v>
+      </c>
+      <c r="F69" s="29">
+        <v>42956</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="28"/>
+      <c r="B70" s="28"/>
       <c r="C70" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="29">
+        <v>42957</v>
+      </c>
+      <c r="F70" s="29">
+        <v>42958</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="29">
+        <v>42961</v>
+      </c>
+      <c r="F71" s="29">
+        <v>42961</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="29">
+        <v>42963</v>
+      </c>
+      <c r="F72" s="29">
+        <v>42968</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="29">
+        <v>42969</v>
+      </c>
+      <c r="F73" s="29">
+        <v>42969</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="29">
+        <v>42970</v>
+      </c>
+      <c r="F74" s="29">
+        <v>42971</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D70" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E70" s="28"/>
-      <c r="F70" s="29">
-        <v>42966</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6">
-      <c r="C72" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-    </row>
-    <row r="73" spans="3:6">
-      <c r="C73" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="29">
-        <v>42968</v>
-      </c>
-      <c r="F73" s="28"/>
-    </row>
-    <row r="74" spans="3:6">
-      <c r="C74" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-    </row>
-    <row r="75" spans="3:6">
-      <c r="C75" s="28" t="s">
+      <c r="D75" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D75" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-    </row>
-    <row r="76" spans="3:6">
-      <c r="C76" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>24</v>
-      </c>
+      <c r="E75" s="29">
+        <v>42972</v>
+      </c>
+      <c r="F75" s="29">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
       <c r="E76" s="28"/>
       <c r="F76" s="28"/>
     </row>
-    <row r="77" spans="3:6">
-      <c r="C77" s="28" t="s">
+    <row r="77" spans="1:6">
+      <c r="A77" s="23">
+        <v>9</v>
+      </c>
+      <c r="B77" s="24">
+        <v>9.1</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="29">
+        <v>42975</v>
+      </c>
+      <c r="F78" s="29">
+        <v>42976</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="29">
+        <v>42976</v>
+      </c>
+      <c r="F79" s="29">
+        <v>42978</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="29">
+        <v>42979</v>
+      </c>
+      <c r="F80" s="29">
+        <v>42979</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="29">
+        <v>42982</v>
+      </c>
+      <c r="F81" s="29">
+        <v>42993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="28"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="29">
+        <v>42996</v>
+      </c>
+      <c r="F82" s="29">
+        <v>42996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="28"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D83" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-    </row>
-    <row r="78" spans="3:6">
-      <c r="C78" s="28" t="s">
+      <c r="E83" s="29">
+        <v>42997</v>
+      </c>
+      <c r="F83" s="29">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="28"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D78" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="28"/>
-      <c r="F78" s="29">
+      <c r="D84" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="29">
         <v>43001</v>
       </c>
-    </row>
-    <row r="80" spans="3:6">
-      <c r="C80" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-    </row>
-    <row r="81" spans="3:6">
-      <c r="C81" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E81" s="29">
-        <v>43003</v>
-      </c>
-      <c r="F81" s="28"/>
-    </row>
-    <row r="82" spans="3:6">
-      <c r="C82" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-    </row>
-    <row r="83" spans="3:6">
-      <c r="C83" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-    </row>
-    <row r="84" spans="3:6">
-      <c r="C84" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-    </row>
-    <row r="85" spans="3:6">
-      <c r="C85" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>29</v>
-      </c>
+      <c r="F84" s="29">
+        <v>43001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="28"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
       <c r="E85" s="28"/>
       <c r="F85" s="28"/>
     </row>
-    <row r="86" spans="3:6">
-      <c r="C86" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E86" s="28"/>
-      <c r="F86" s="29">
-        <v>43054</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6">
-      <c r="C88" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-    </row>
-    <row r="89" spans="3:6">
+    <row r="86" spans="1:6">
+      <c r="A86" s="23">
+        <v>10</v>
+      </c>
+      <c r="B86" s="24">
+        <v>10.1</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="28"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="29">
+        <v>43003</v>
+      </c>
+      <c r="F87" s="29">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="29">
+        <v>43007</v>
+      </c>
+      <c r="F88" s="29">
+        <v>43014</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="28"/>
+      <c r="B89" s="28"/>
       <c r="C89" s="28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E89" s="29">
-        <v>42782</v>
-      </c>
-      <c r="F89" s="28"/>
-    </row>
-    <row r="90" spans="3:6">
+        <v>43017</v>
+      </c>
+      <c r="F89" s="29">
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="28"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D90" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-    </row>
-    <row r="91" spans="3:6">
+      <c r="E90" s="29">
+        <v>43019</v>
+      </c>
+      <c r="F90" s="29">
+        <v>43034</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="28"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-    </row>
-    <row r="92" spans="3:6">
+      <c r="E91" s="29">
+        <v>43035</v>
+      </c>
+      <c r="F91" s="29">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="28"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="29">
+        <v>43041</v>
+      </c>
+      <c r="F92" s="29">
+        <v>43049</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" s="29">
+        <v>43052</v>
+      </c>
+      <c r="F93" s="29">
+        <v>43054</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="23">
+        <v>11</v>
+      </c>
+      <c r="B95" s="24">
+        <v>11.1</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E96" s="29">
+        <v>42807</v>
+      </c>
+      <c r="F96" s="29">
+        <v>42842</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="29">
+        <v>42843</v>
+      </c>
+      <c r="F97" s="29">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="29">
+        <v>42857</v>
+      </c>
+      <c r="F98" s="29">
+        <v>42911</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D92" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-    </row>
-    <row r="93" spans="3:6">
-      <c r="C93" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D93" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-    </row>
-    <row r="94" spans="3:6">
-      <c r="C94" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D94" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E94" s="28"/>
-      <c r="F94" s="29">
-        <v>43001</v>
-      </c>
-    </row>
-    <row r="96" ht="15.75" customHeight="1" spans="3:6">
-      <c r="C96" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1" spans="3:6">
-      <c r="C97" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D97" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E97" s="29">
-        <v>43003</v>
-      </c>
-      <c r="F97" s="28"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1" spans="3:6">
-      <c r="C98" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1" spans="3:6">
-      <c r="C99" s="28" t="s">
+      <c r="D99" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D99" s="28" t="s">
+      <c r="E99" s="29">
+        <v>42881</v>
+      </c>
+      <c r="F99" s="29">
+        <v>42947</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1" spans="3:6">
-      <c r="C100" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D100" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1" spans="3:6">
+      <c r="E100" s="29">
+        <v>42948</v>
+      </c>
+      <c r="F100" s="29">
+        <v>42972</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="28"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="28" t="s">
         <v>34</v>
       </c>
       <c r="D101" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1" spans="3:6">
+      <c r="E101" s="29">
+        <v>42975</v>
+      </c>
+      <c r="F101" s="29">
+        <v>42993</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="28"/>
+      <c r="B102" s="28"/>
       <c r="C102" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E102" s="28"/>
+        <v>37</v>
+      </c>
+      <c r="E102" s="29">
+        <v>42996</v>
+      </c>
       <c r="F102" s="29">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="28"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="28"/>
+      <c r="E103" s="28"/>
+      <c r="F103" s="28"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A104" s="23">
+        <v>12</v>
+      </c>
+      <c r="B104" s="24">
+        <v>12.1</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="26"/>
+    </row>
+    <row r="105" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="29">
+        <v>43003</v>
+      </c>
+      <c r="F105" s="29">
+        <v>43014</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="29">
+        <v>43017</v>
+      </c>
+      <c r="F106" s="29">
+        <v>43021</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="29">
+        <v>43024</v>
+      </c>
+      <c r="F107" s="29">
+        <v>43026</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" s="29">
+        <v>43031</v>
+      </c>
+      <c r="F108" s="29">
+        <v>43046</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A109" s="28"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="29">
+        <v>43047</v>
+      </c>
+      <c r="F109" s="29">
+        <v>43048</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="29">
+        <v>43049</v>
+      </c>
+      <c r="F110" s="29">
+        <v>43053</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1" spans="1:6">
+      <c r="A111" s="28"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E111" s="29">
         <v>43054</v>
       </c>
-    </row>
-    <row r="104" spans="3:6">
-      <c r="C104" s="31" t="s">
+      <c r="F111" s="29">
+        <v>43054</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="28"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="23">
+        <v>13</v>
+      </c>
+      <c r="B113" s="24">
+        <v>13.1</v>
+      </c>
+      <c r="C113" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D104" s="34"/>
-      <c r="E104" s="34"/>
-      <c r="F104" s="34"/>
-    </row>
-    <row r="105" spans="3:6">
-      <c r="C105" s="28" t="s">
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="28"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D105" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E105" s="29">
+      <c r="D114" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" s="29">
         <v>43055</v>
       </c>
-      <c r="F105" s="29">
+      <c r="F114" s="29">
         <v>43069</v>
       </c>
     </row>
-    <row r="106" spans="3:6">
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-    </row>
-    <row r="107" spans="3:6">
-      <c r="C107" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107" s="34"/>
-      <c r="E107" s="34"/>
-      <c r="F107" s="34"/>
-    </row>
-    <row r="108" spans="3:6">
-      <c r="C108" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D108" s="28"/>
-      <c r="E108" s="29">
+    <row r="115" spans="1:6">
+      <c r="A115" s="28"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="23">
+        <v>14</v>
+      </c>
+      <c r="B116" s="24">
+        <v>14.1</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="28"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E117" s="29">
         <v>43070</v>
       </c>
-      <c r="F108" s="29">
+      <c r="F117" s="29">
         <v>42754</v>
       </c>
     </row>
-    <row r="109" spans="3:6">
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-    </row>
-    <row r="110" spans="3:6">
-      <c r="C110" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="34"/>
-    </row>
-    <row r="111" spans="3:6">
-      <c r="C111" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D111" s="28"/>
-      <c r="E111" s="29">
+    <row r="118" spans="1:6">
+      <c r="A118" s="28"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="23">
+        <v>15</v>
+      </c>
+      <c r="B119" s="24">
+        <v>15.1</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="28"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="29">
         <v>43089</v>
       </c>
-      <c r="F111" s="29">
+      <c r="F120" s="29">
         <v>43098</v>
       </c>
     </row>
-    <row r="113" spans="3:6">
-      <c r="C113" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-    </row>
-    <row r="114" spans="3:6">
-      <c r="C114" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D114" s="28"/>
-      <c r="E114" s="29">
+    <row r="121" spans="1:6">
+      <c r="A121" s="28"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="23">
+        <v>16</v>
+      </c>
+      <c r="B122" s="24">
+        <v>16.1</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="28"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" s="29">
         <v>43099</v>
       </c>
-      <c r="F114" s="29">
+      <c r="F123" s="29">
         <v>43099</v>
       </c>
     </row>

--- a/ProjectDocs/WBS-Compucom Tracker.xlsx
+++ b/ProjectDocs/WBS-Compucom Tracker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quality\CMM\2017\Compucom Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit Sharma\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15990" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -438,7 +438,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2500,7 +2500,7 @@
         <v>43070</v>
       </c>
       <c r="F118" s="18">
-        <v>42754</v>
+        <v>43088</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2538,7 +2538,7 @@
         <v>43089</v>
       </c>
       <c r="F121" s="18">
-        <v>43098</v>
+        <v>43097</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2573,10 +2573,10 @@
         <v>15</v>
       </c>
       <c r="E124" s="18">
-        <v>43099</v>
+        <v>43098</v>
       </c>
       <c r="F124" s="18">
-        <v>43099</v>
+        <v>43098</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectDocs/WBS-Compucom Tracker.xlsx
+++ b/ProjectDocs/WBS-Compucom Tracker.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -207,7 +207,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -463,7 +463,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2690,7 +2690,7 @@
         <v>57</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E125" s="19">
         <v>43089</v>
@@ -2728,13 +2728,13 @@
         <v>58</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E128" s="19">
         <v>43098</v>
       </c>
       <c r="F128" s="19">
-        <v>43098</v>
+        <v>43099</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectDocs/WBS-Compucom Tracker.xlsx
+++ b/ProjectDocs/WBS-Compucom Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18600" windowHeight="7215"/>
+    <workbookView windowWidth="19100" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,19 +207,139 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]dd\-mmm\-yy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="d\-mmm\-yy"/>
+    <numFmt numFmtId="177" formatCode="[$-409]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -242,174 +362,8 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,7 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,193 +390,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor indexed="49"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor indexed="25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,11 +483,11 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -649,17 +495,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -669,7 +515,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -677,53 +523,64 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,18 +589,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,343 +637,307 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="40% - Accent1" xfId="2"/>
+    <cellStyle name="Comma [0]" xfId="3"/>
+    <cellStyle name="Currency [0]" xfId="4"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Comma[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
+    <cellStyle name="Currency[0]" xfId="8" builtinId="7"/>
+    <cellStyle name="Check Cell" xfId="9"/>
+    <cellStyle name="Heading 2" xfId="10"/>
+    <cellStyle name="Note" xfId="11"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="13"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="15"/>
+    <cellStyle name="Warning Text" xfId="16"/>
+    <cellStyle name="40% - Accent2" xfId="17"/>
+    <cellStyle name="Title" xfId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="19"/>
+    <cellStyle name="Heading 1" xfId="20"/>
+    <cellStyle name="Heading 3" xfId="21"/>
+    <cellStyle name="Heading 4" xfId="22"/>
+    <cellStyle name="Input" xfId="23"/>
+    <cellStyle name="60% - Accent3" xfId="24"/>
+    <cellStyle name="Good" xfId="25"/>
+    <cellStyle name="Output" xfId="26"/>
+    <cellStyle name="20% - Accent1" xfId="27"/>
+    <cellStyle name="Calculation" xfId="28"/>
+    <cellStyle name="Linked Cell" xfId="29"/>
+    <cellStyle name="Total" xfId="30"/>
+    <cellStyle name="Bad" xfId="31"/>
+    <cellStyle name="Neutral" xfId="32"/>
+    <cellStyle name="Accent1" xfId="33"/>
+    <cellStyle name="20% - Accent5" xfId="34"/>
+    <cellStyle name="60% - Accent1" xfId="35"/>
+    <cellStyle name="Accent2" xfId="36"/>
+    <cellStyle name="20% - Accent2" xfId="37"/>
+    <cellStyle name="20% - Accent6" xfId="38"/>
+    <cellStyle name="60% - Accent2" xfId="39"/>
+    <cellStyle name="Accent3" xfId="40"/>
+    <cellStyle name="20% - Accent3" xfId="41"/>
+    <cellStyle name="Accent4" xfId="42"/>
+    <cellStyle name="20% - Accent4" xfId="43"/>
+    <cellStyle name="40% - Accent4" xfId="44"/>
+    <cellStyle name="Accent5" xfId="45"/>
+    <cellStyle name="40% - Accent5" xfId="46"/>
+    <cellStyle name="60% - Accent5" xfId="47"/>
+    <cellStyle name="Accent6" xfId="48"/>
+    <cellStyle name="40% - Accent6" xfId="49"/>
+    <cellStyle name="60% - Accent6" xfId="50"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1138,71 +987,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1387,7 +1236,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1415,16 +1263,17 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1500,7 +1349,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="K5" s="29"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:8">
       <c r="A6" s="5"/>
@@ -1937,8 +1786,8 @@
       <c r="D31" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="24">
-        <v>42790</v>
+      <c r="E31" s="29">
+        <v>42789</v>
       </c>
       <c r="F31" s="24">
         <v>75664</v>
@@ -3110,8 +2959,8 @@
       <c r="D99" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E99" s="24">
-        <v>42807</v>
+      <c r="E99" s="29">
+        <v>42808</v>
       </c>
       <c r="F99" s="24">
         <v>42842</v>
@@ -3151,8 +3000,8 @@
       <c r="E101" s="24">
         <v>42857</v>
       </c>
-      <c r="F101" s="24">
-        <v>42911</v>
+      <c r="F101" s="29">
+        <v>42909</v>
       </c>
       <c r="G101" s="23"/>
       <c r="H101" s="23"/>
@@ -3422,8 +3271,8 @@
       <c r="D117" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E117" s="25">
-        <v>43009</v>
+      <c r="E117" s="29">
+        <v>43011</v>
       </c>
       <c r="F117" s="25">
         <v>43054</v>
@@ -3640,7 +3489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
